--- a/Datos/Database by set/Set with text box/Xlsx sets/Iconic Masters Tokens (TIMA).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Iconic Masters Tokens (TIMA).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,196 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>('Angel', ['Token Creature — Angel', 'Flying', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Angel</t>
+          <t>('Beast', ['Token Creature — Beast', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Bird', ['Token Creature — Bird', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Djinn Monk', ['Token Creature — Djinn Monk', 'Flying', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Token Creature — Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Djinn Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Token Creature — Djinn Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Token Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{R}: This creature gets +1/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Token Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
